--- a/vendedoresdimexa.xlsx
+++ b/vendedoresdimexa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\VENTAS\RCHIMPEN\CIERRE DE VENTAS\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\rselenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="998">
   <si>
     <t>ruc</t>
   </si>
@@ -2145,9 +2145,6 @@
     <t>BOTICA A &amp; L FARMA</t>
   </si>
   <si>
-    <t>BOTICA INSURGENTES/grupo intifarma</t>
-  </si>
-  <si>
     <t>20513376112</t>
   </si>
   <si>
@@ -2262,9 +2259,6 @@
     <t>BOTICA LUCY</t>
   </si>
   <si>
-    <t>CADENA + AHORRO BAXLEY GROUP</t>
-  </si>
-  <si>
     <t>20505877111</t>
   </si>
   <si>
@@ -2430,9 +2424,6 @@
     <t>K LUZ FARMA</t>
   </si>
   <si>
-    <t>INKA PERU- CATAFARMA</t>
-  </si>
-  <si>
     <t>20548615594</t>
   </si>
   <si>
@@ -2505,9 +2496,6 @@
     <t>BOTICA INTERFARMA</t>
   </si>
   <si>
-    <t>INVERSIONES INNOVA C &amp;P S.A.C</t>
-  </si>
-  <si>
     <t>20601338514</t>
   </si>
   <si>
@@ -2634,9 +2622,6 @@
     <t>ALFA BOTICA UNION FARMA</t>
   </si>
   <si>
-    <t>CUEVA INVERSIONES EN SALUD SAC</t>
-  </si>
-  <si>
     <t>20519131243</t>
   </si>
   <si>
@@ -2661,12 +2646,6 @@
     <t>CARVO BARRIOS DIANA</t>
   </si>
   <si>
-    <t>ADMINISTRADORA BERNA SAC</t>
-  </si>
-  <si>
-    <t>BOTICA UNION FARMA</t>
-  </si>
-  <si>
     <t>20606036010</t>
   </si>
   <si>
@@ -2818,9 +2797,6 @@
   </si>
   <si>
     <t>BOTICA FARMANORTE</t>
-  </si>
-  <si>
-    <t>GRUPO INTIFARMA SAC</t>
   </si>
   <si>
     <t>20537797275</t>
@@ -3357,10 +3333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F482"/>
+  <dimension ref="A1:F473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9914,10 +9890,10 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>546</v>
+        <v>707</v>
       </c>
       <c r="B328" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C328" t="s">
         <v>641</v>
@@ -9934,10 +9910,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B329" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C329" t="s">
         <v>641</v>
@@ -9954,10 +9930,10 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B330" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C330" t="s">
         <v>641</v>
@@ -9974,10 +9950,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B331" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C331" t="s">
         <v>641</v>
@@ -9994,10 +9970,10 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B332" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C332" t="s">
         <v>641</v>
@@ -10014,10 +9990,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B333" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C333" t="s">
         <v>641</v>
@@ -10034,10 +10010,10 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B334" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C334" t="s">
         <v>641</v>
@@ -10054,10 +10030,10 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B335" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C335" t="s">
         <v>641</v>
@@ -10074,10 +10050,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B336" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C336" t="s">
         <v>641</v>
@@ -10094,10 +10070,10 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B337" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C337" t="s">
         <v>641</v>
@@ -10114,10 +10090,10 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B338" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C338" t="s">
         <v>641</v>
@@ -10134,10 +10110,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B339" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C339" t="s">
         <v>641</v>
@@ -10154,10 +10130,10 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B340" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C340" t="s">
         <v>641</v>
@@ -10174,10 +10150,10 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B341" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C341" t="s">
         <v>641</v>
@@ -10194,10 +10170,10 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B342" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C342" t="s">
         <v>641</v>
@@ -10214,10 +10190,10 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B343" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C343" t="s">
         <v>641</v>
@@ -10234,10 +10210,10 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B344" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C344" t="s">
         <v>641</v>
@@ -10254,10 +10230,10 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B345" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C345" t="s">
         <v>641</v>
@@ -10274,10 +10250,10 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B346" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C346" t="s">
         <v>641</v>
@@ -10294,10 +10270,10 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B347" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C347" t="s">
         <v>641</v>
@@ -10314,10 +10290,10 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>524</v>
+        <v>747</v>
       </c>
       <c r="B348" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C348" t="s">
         <v>641</v>
@@ -10334,10 +10310,10 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B349" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C349" t="s">
         <v>641</v>
@@ -10354,10 +10330,10 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B350" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C350" t="s">
         <v>641</v>
@@ -10374,10 +10350,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B351" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C351" t="s">
         <v>641</v>
@@ -10394,10 +10370,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B352" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C352" t="s">
         <v>641</v>
@@ -10414,10 +10390,10 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B353" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C353" t="s">
         <v>641</v>
@@ -10434,10 +10410,10 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B354" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C354" t="s">
         <v>641</v>
@@ -10454,10 +10430,10 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B355" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C355" t="s">
         <v>641</v>
@@ -10474,10 +10450,10 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B356" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C356" t="s">
         <v>641</v>
@@ -10494,10 +10470,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B357" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C357" t="s">
         <v>641</v>
@@ -10514,17 +10490,14 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>765</v>
+        <v>997</v>
       </c>
       <c r="B358" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C358" t="s">
         <v>641</v>
       </c>
-      <c r="D358" t="s">
-        <v>11</v>
-      </c>
       <c r="E358" t="s">
         <v>11</v>
       </c>
@@ -10534,10 +10507,10 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B359" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C359" t="s">
         <v>641</v>
@@ -10554,14 +10527,17 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1005</v>
+        <v>770</v>
       </c>
       <c r="B360" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C360" t="s">
         <v>641</v>
       </c>
+      <c r="D360" t="s">
+        <v>11</v>
+      </c>
       <c r="E360" t="s">
         <v>11</v>
       </c>
@@ -10571,10 +10547,10 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>546</v>
+        <v>772</v>
       </c>
       <c r="B361" t="s">
-        <v>547</v>
+        <v>773</v>
       </c>
       <c r="C361" t="s">
         <v>641</v>
@@ -10591,10 +10567,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="B362" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C362" t="s">
         <v>641</v>
@@ -10611,10 +10587,10 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B363" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C363" t="s">
         <v>641</v>
@@ -10631,10 +10607,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B364" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C364" t="s">
         <v>641</v>
@@ -10651,10 +10627,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B365" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C365" t="s">
         <v>641</v>
@@ -10671,10 +10647,10 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="B366" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C366" t="s">
         <v>641</v>
@@ -10691,10 +10667,10 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="B367" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C367" t="s">
         <v>641</v>
@@ -10711,10 +10687,10 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B368" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C368" t="s">
         <v>641</v>
@@ -10731,10 +10707,10 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B369" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="C369" t="s">
         <v>641</v>
@@ -10751,10 +10727,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B370" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C370" t="s">
         <v>641</v>
@@ -10771,10 +10747,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B371" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C371" t="s">
         <v>641</v>
@@ -10791,10 +10767,10 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B372" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C372" t="s">
         <v>641</v>
@@ -10811,10 +10787,10 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B373" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="C373" t="s">
         <v>641</v>
@@ -10831,10 +10807,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B374" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C374" t="s">
         <v>641</v>
@@ -10851,10 +10827,10 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B375" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C375" t="s">
         <v>641</v>
@@ -10871,10 +10847,10 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B376" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C376" t="s">
         <v>641</v>
@@ -10891,10 +10867,10 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B377" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C377" t="s">
         <v>641</v>
@@ -10903,7 +10879,7 @@
         <v>11</v>
       </c>
       <c r="E377" t="s">
-        <v>11</v>
+        <v>806</v>
       </c>
       <c r="F377" t="s">
         <v>11</v>
@@ -10911,10 +10887,10 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>588</v>
+        <v>807</v>
       </c>
       <c r="B378" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C378" t="s">
         <v>641</v>
@@ -10931,10 +10907,10 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="B379" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C379" t="s">
         <v>641</v>
@@ -10951,10 +10927,10 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B380" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C380" t="s">
         <v>641</v>
@@ -10971,10 +10947,10 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B381" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C381" t="s">
         <v>641</v>
@@ -10983,7 +10959,7 @@
         <v>11</v>
       </c>
       <c r="E381" t="s">
-        <v>809</v>
+        <v>11</v>
       </c>
       <c r="F381" t="s">
         <v>11</v>
@@ -10991,10 +10967,10 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B382" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C382" t="s">
         <v>641</v>
@@ -11011,10 +10987,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B383" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C383" t="s">
         <v>641</v>
@@ -11023,7 +10999,7 @@
         <v>11</v>
       </c>
       <c r="E383" t="s">
-        <v>11</v>
+        <v>819</v>
       </c>
       <c r="F383" t="s">
         <v>11</v>
@@ -11031,10 +11007,10 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B384" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C384" t="s">
         <v>641</v>
@@ -11051,10 +11027,10 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B385" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C385" t="s">
         <v>641</v>
@@ -11071,10 +11047,10 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B386" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C386" t="s">
         <v>641</v>
@@ -11091,10 +11067,10 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B387" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C387" t="s">
         <v>641</v>
@@ -11103,7 +11079,7 @@
         <v>11</v>
       </c>
       <c r="E387" t="s">
-        <v>822</v>
+        <v>11</v>
       </c>
       <c r="F387" t="s">
         <v>11</v>
@@ -11111,10 +11087,10 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="B388" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C388" t="s">
         <v>641</v>
@@ -11131,10 +11107,10 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="B389" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C389" t="s">
         <v>641</v>
@@ -11151,10 +11127,10 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>394</v>
+        <v>832</v>
       </c>
       <c r="B390" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C390" t="s">
         <v>641</v>
@@ -11171,10 +11147,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B391" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C391" t="s">
         <v>641</v>
@@ -11191,10 +11167,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B392" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C392" t="s">
         <v>641</v>
@@ -11211,10 +11187,10 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="B393" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C393" t="s">
         <v>641</v>
@@ -11231,10 +11207,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B394" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C394" t="s">
         <v>641</v>
@@ -11251,10 +11227,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B395" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C395" t="s">
         <v>641</v>
@@ -11271,10 +11247,10 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B396" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C396" t="s">
         <v>641</v>
@@ -11291,10 +11267,10 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B397" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C397" t="s">
         <v>641</v>
@@ -11311,10 +11287,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B398" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C398" t="s">
         <v>641</v>
@@ -11331,10 +11307,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="B399" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C399" t="s">
         <v>641</v>
@@ -11351,13 +11327,13 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B400" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C400" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D400" t="s">
         <v>11</v>
@@ -11371,13 +11347,13 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="B401" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C401" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D401" t="s">
         <v>11</v>
@@ -11391,13 +11367,13 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B402" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C402" t="s">
-        <v>641</v>
+        <v>416</v>
       </c>
       <c r="D402" t="s">
         <v>11</v>
@@ -11411,13 +11387,13 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B403" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C403" t="s">
-        <v>641</v>
+        <v>416</v>
       </c>
       <c r="D403" t="s">
         <v>11</v>
@@ -11431,13 +11407,13 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B404" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C404" t="s">
-        <v>641</v>
+        <v>416</v>
       </c>
       <c r="D404" t="s">
         <v>11</v>
@@ -11451,13 +11427,13 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="B405" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C405" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D405" t="s">
         <v>11</v>
@@ -11471,13 +11447,13 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B406" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C406" t="s">
-        <v>8</v>
+        <v>641</v>
       </c>
       <c r="D406" t="s">
         <v>11</v>
@@ -11491,13 +11467,13 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B407" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C407" t="s">
-        <v>416</v>
+        <v>641</v>
       </c>
       <c r="D407" t="s">
         <v>11</v>
@@ -11511,10 +11487,10 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B408" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C408" t="s">
         <v>416</v>
@@ -11531,13 +11507,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B409" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C409" t="s">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="D409" t="s">
         <v>11</v>
@@ -11551,13 +11527,13 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B410" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C410" t="s">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="D410" t="s">
         <v>11</v>
@@ -11571,13 +11547,13 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B411" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C411" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D411" t="s">
         <v>11</v>
@@ -11591,13 +11567,13 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>759</v>
+        <v>876</v>
       </c>
       <c r="B412" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C412" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D412" t="s">
         <v>11</v>
@@ -11611,13 +11587,13 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="B413" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C413" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D413" t="s">
         <v>11</v>
@@ -11631,13 +11607,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="B414" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="C414" t="s">
-        <v>416</v>
+        <v>229</v>
       </c>
       <c r="D414" t="s">
         <v>11</v>
@@ -11651,13 +11627,13 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="B415" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="C415" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D415" t="s">
         <v>11</v>
@@ -11671,13 +11647,13 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="B416" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="C416" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D416" t="s">
         <v>11</v>
@@ -11691,13 +11667,13 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>146</v>
+        <v>886</v>
       </c>
       <c r="B417" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="C417" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D417" t="s">
         <v>11</v>
@@ -11711,13 +11687,13 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="B418" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="C418" t="s">
-        <v>641</v>
+        <v>229</v>
       </c>
       <c r="D418" t="s">
         <v>11</v>
@@ -11731,13 +11707,13 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="B419" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="C419" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D419" t="s">
         <v>11</v>
@@ -11751,13 +11727,13 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="B420" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C420" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D420" t="s">
         <v>11</v>
@@ -11771,13 +11747,13 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="B421" t="s">
-        <v>886</v>
+        <v>659</v>
       </c>
       <c r="C421" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D421" t="s">
         <v>11</v>
@@ -11791,10 +11767,10 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="B422" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C422" t="s">
         <v>229</v>
@@ -11811,10 +11787,10 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="B423" t="s">
-        <v>890</v>
+        <v>293</v>
       </c>
       <c r="C423" t="s">
         <v>229</v>
@@ -11831,10 +11807,10 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>891</v>
+        <v>898</v>
       </c>
       <c r="B424" t="s">
-        <v>892</v>
+        <v>899</v>
       </c>
       <c r="C424" t="s">
         <v>229</v>
@@ -11851,10 +11827,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="B425" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C425" t="s">
         <v>229</v>
@@ -11871,10 +11847,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="B426" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="C426" t="s">
         <v>229</v>
@@ -11891,10 +11867,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>897</v>
+        <v>904</v>
       </c>
       <c r="B427" t="s">
-        <v>898</v>
+        <v>905</v>
       </c>
       <c r="C427" t="s">
         <v>229</v>
@@ -11911,10 +11887,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="B428" t="s">
-        <v>900</v>
+        <v>907</v>
       </c>
       <c r="C428" t="s">
         <v>229</v>
@@ -11931,10 +11907,10 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="B429" t="s">
-        <v>659</v>
+        <v>909</v>
       </c>
       <c r="C429" t="s">
         <v>229</v>
@@ -11951,10 +11927,10 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="B430" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="C430" t="s">
         <v>229</v>
@@ -11971,10 +11947,10 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="B431" t="s">
-        <v>293</v>
+        <v>913</v>
       </c>
       <c r="C431" t="s">
         <v>229</v>
@@ -11991,10 +11967,10 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="B432" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="C432" t="s">
         <v>229</v>
@@ -12011,10 +11987,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="B433" t="s">
-        <v>908</v>
+        <v>657</v>
       </c>
       <c r="C433" t="s">
         <v>229</v>
@@ -12031,10 +12007,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="B434" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="C434" t="s">
         <v>229</v>
@@ -12051,10 +12027,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="B435" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="C435" t="s">
         <v>229</v>
@@ -12071,10 +12047,10 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="B436" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="C436" t="s">
         <v>229</v>
@@ -12091,10 +12067,10 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="B437" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C437" t="s">
         <v>229</v>
@@ -12111,10 +12087,10 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="B438" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="C438" t="s">
         <v>229</v>
@@ -12131,10 +12107,10 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="B439" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="C439" t="s">
         <v>229</v>
@@ -12151,10 +12127,10 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="B440" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="C440" t="s">
         <v>229</v>
@@ -12171,10 +12147,10 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="B441" t="s">
-        <v>657</v>
+        <v>932</v>
       </c>
       <c r="C441" t="s">
         <v>229</v>
@@ -12191,10 +12167,10 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="B442" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="C442" t="s">
         <v>229</v>
@@ -12211,10 +12187,10 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="B443" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="C443" t="s">
         <v>229</v>
@@ -12231,10 +12207,10 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="B444" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="C444" t="s">
         <v>229</v>
@@ -12251,13 +12227,13 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="B445" t="s">
-        <v>931</v>
+        <v>940</v>
       </c>
       <c r="C445" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D445" t="s">
         <v>11</v>
@@ -12271,13 +12247,13 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>546</v>
+        <v>941</v>
       </c>
       <c r="B446" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="C446" t="s">
-        <v>229</v>
+        <v>641</v>
       </c>
       <c r="D446" t="s">
         <v>11</v>
@@ -12291,13 +12267,13 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="B447" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="C447" t="s">
-        <v>229</v>
+        <v>641</v>
       </c>
       <c r="D447" t="s">
         <v>11</v>
@@ -12311,13 +12287,13 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="B448" t="s">
-        <v>936</v>
+        <v>209</v>
       </c>
       <c r="C448" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D448" t="s">
         <v>11</v>
@@ -12331,13 +12307,13 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>937</v>
+        <v>946</v>
       </c>
       <c r="B449" t="s">
-        <v>938</v>
+        <v>947</v>
       </c>
       <c r="C449" t="s">
-        <v>229</v>
+        <v>641</v>
       </c>
       <c r="D449" t="s">
         <v>11</v>
@@ -12351,13 +12327,13 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>939</v>
+        <v>948</v>
       </c>
       <c r="B450" t="s">
-        <v>940</v>
+        <v>949</v>
       </c>
       <c r="C450" t="s">
-        <v>229</v>
+        <v>641</v>
       </c>
       <c r="D450" t="s">
         <v>11</v>
@@ -12371,13 +12347,13 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>941</v>
+        <v>950</v>
       </c>
       <c r="B451" t="s">
-        <v>942</v>
+        <v>951</v>
       </c>
       <c r="C451" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D451" t="s">
         <v>11</v>
@@ -12391,13 +12367,13 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="B452" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="C452" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D452" t="s">
         <v>11</v>
@@ -12411,13 +12387,13 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>945</v>
+        <v>954</v>
       </c>
       <c r="B453" t="s">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="C453" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="D453" t="s">
         <v>11</v>
@@ -12431,10 +12407,10 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="B454" t="s">
-        <v>948</v>
+        <v>957</v>
       </c>
       <c r="C454" t="s">
         <v>8</v>
@@ -12451,13 +12427,13 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>949</v>
+        <v>958</v>
       </c>
       <c r="B455" t="s">
-        <v>950</v>
+        <v>959</v>
       </c>
       <c r="C455" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D455" t="s">
         <v>11</v>
@@ -12471,13 +12447,13 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>951</v>
+        <v>960</v>
       </c>
       <c r="B456" t="s">
-        <v>952</v>
+        <v>961</v>
       </c>
       <c r="C456" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D456" t="s">
         <v>11</v>
@@ -12491,10 +12467,10 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>953</v>
+        <v>962</v>
       </c>
       <c r="B457" t="s">
-        <v>209</v>
+        <v>963</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -12511,13 +12487,13 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="B458" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="C458" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D458" t="s">
         <v>11</v>
@@ -12531,13 +12507,13 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="B459" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="C459" t="s">
-        <v>641</v>
+        <v>8</v>
       </c>
       <c r="D459" t="s">
         <v>11</v>
@@ -12551,10 +12527,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="B460" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="C460" t="s">
         <v>8</v>
@@ -12571,19 +12547,19 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B461" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="C461" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D461" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E461" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="F461" t="s">
         <v>11</v>
@@ -12591,19 +12567,19 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="B462" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="C462" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D462" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E462" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="F462" t="s">
         <v>11</v>
@@ -12611,19 +12587,19 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B463" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="C463" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D463" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E463" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="F463" t="s">
         <v>11</v>
@@ -12631,19 +12607,19 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B464" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="C464" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D464" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E464" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="F464" t="s">
         <v>11</v>
@@ -12651,19 +12627,19 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="B465" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="C465" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D465" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E465" t="s">
-        <v>11</v>
+        <v>456</v>
       </c>
       <c r="F465" t="s">
         <v>11</v>
@@ -12671,19 +12647,19 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B466" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="C466" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D466" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E466" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="F466" t="s">
         <v>11</v>
@@ -12691,19 +12667,19 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="B467" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="C467" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D467" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E467" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="F467" t="s">
         <v>11</v>
@@ -12711,19 +12687,19 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="B468" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="C468" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D468" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E468" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="F468" t="s">
         <v>11</v>
@@ -12731,19 +12707,19 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="B469" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="C469" t="s">
-        <v>8</v>
+        <v>416</v>
       </c>
       <c r="D469" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E469" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="F469" t="s">
         <v>11</v>
@@ -12751,10 +12727,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="B470" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="C470" t="s">
         <v>416</v>
@@ -12763,7 +12739,7 @@
         <v>9</v>
       </c>
       <c r="E470" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="F470" t="s">
         <v>11</v>
@@ -12771,10 +12747,10 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="B471" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="C471" t="s">
         <v>416</v>
@@ -12783,7 +12759,7 @@
         <v>9</v>
       </c>
       <c r="E471" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="F471" t="s">
         <v>11</v>
@@ -12791,10 +12767,10 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="B472" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="C472" t="s">
         <v>416</v>
@@ -12803,7 +12779,7 @@
         <v>9</v>
       </c>
       <c r="E472" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="F472" t="s">
         <v>11</v>
@@ -12811,10 +12787,10 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="B473" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="C473" t="s">
         <v>416</v>
@@ -12823,189 +12799,9 @@
         <v>9</v>
       </c>
       <c r="E473" t="s">
-        <v>451</v>
+        <v>996</v>
       </c>
       <c r="F473" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>986</v>
-      </c>
-      <c r="B474" t="s">
-        <v>987</v>
-      </c>
-      <c r="C474" t="s">
-        <v>416</v>
-      </c>
-      <c r="D474" t="s">
-        <v>9</v>
-      </c>
-      <c r="E474" t="s">
-        <v>456</v>
-      </c>
-      <c r="F474" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>988</v>
-      </c>
-      <c r="B475" t="s">
-        <v>989</v>
-      </c>
-      <c r="C475" t="s">
-        <v>416</v>
-      </c>
-      <c r="D475" t="s">
-        <v>9</v>
-      </c>
-      <c r="E475" t="s">
-        <v>417</v>
-      </c>
-      <c r="F475" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>990</v>
-      </c>
-      <c r="B476" t="s">
-        <v>991</v>
-      </c>
-      <c r="C476" t="s">
-        <v>416</v>
-      </c>
-      <c r="D476" t="s">
-        <v>9</v>
-      </c>
-      <c r="E476" t="s">
-        <v>459</v>
-      </c>
-      <c r="F476" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>992</v>
-      </c>
-      <c r="B477" t="s">
-        <v>993</v>
-      </c>
-      <c r="C477" t="s">
-        <v>416</v>
-      </c>
-      <c r="D477" t="s">
-        <v>9</v>
-      </c>
-      <c r="E477" t="s">
-        <v>417</v>
-      </c>
-      <c r="F477" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>994</v>
-      </c>
-      <c r="B478" t="s">
-        <v>995</v>
-      </c>
-      <c r="C478" t="s">
-        <v>416</v>
-      </c>
-      <c r="D478" t="s">
-        <v>9</v>
-      </c>
-      <c r="E478" t="s">
-        <v>417</v>
-      </c>
-      <c r="F478" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>996</v>
-      </c>
-      <c r="B479" t="s">
-        <v>997</v>
-      </c>
-      <c r="C479" t="s">
-        <v>416</v>
-      </c>
-      <c r="D479" t="s">
-        <v>9</v>
-      </c>
-      <c r="E479" t="s">
-        <v>417</v>
-      </c>
-      <c r="F479" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>998</v>
-      </c>
-      <c r="B480" t="s">
-        <v>999</v>
-      </c>
-      <c r="C480" t="s">
-        <v>416</v>
-      </c>
-      <c r="D480" t="s">
-        <v>9</v>
-      </c>
-      <c r="E480" t="s">
-        <v>417</v>
-      </c>
-      <c r="F480" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C481" t="s">
-        <v>416</v>
-      </c>
-      <c r="D481" t="s">
-        <v>9</v>
-      </c>
-      <c r="E481" t="s">
-        <v>451</v>
-      </c>
-      <c r="F481" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B482" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C482" t="s">
-        <v>416</v>
-      </c>
-      <c r="D482" t="s">
-        <v>9</v>
-      </c>
-      <c r="E482" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F482" t="s">
         <v>11</v>
       </c>
     </row>
